--- a/doc/LogTemplate_Martina_Nolletti.xlsx
+++ b/doc/LogTemplate_Martina_Nolletti.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Desktop\Ingegneria del Software\Progetto\Progetto 2020-2021\SECONDA CONSEGNA-10 GENNAIO 2021\Cose da inviare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martina\Desktop\Ingegneria del Software\Progetto\Progetto 2020-2021\TERZA CONSEGNA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B661184-E8A7-458E-8520-1D22E7DEC1E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3892B6-289C-46F6-B116-C043040C3FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D3916CE6-D638-48FD-99C3-C6F7AA6564D8}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="68">
   <si>
     <t>Personal Journal</t>
   </si>
@@ -239,6 +239,18 @@
   </si>
   <si>
     <t xml:space="preserve">2 ore </t>
+  </si>
+  <si>
+    <t>Studio e discussione del Modello E-R.</t>
+  </si>
+  <si>
+    <t>Discussione implementazione del Modello E-R su MySQL Workbench.</t>
+  </si>
+  <si>
+    <t>Discussione e implementazione del prototipo in JAVA e JAVAFX.</t>
+  </si>
+  <si>
+    <t>APPENDIX</t>
   </si>
 </sst>
 </file>
@@ -401,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,6 +426,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -439,6 +454,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA8ECAF-08FA-4959-8D8E-2403EA5A9A96}">
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:H39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1159,52 +1180,52 @@
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="54.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1515,21 +1536,21 @@
         <v>11</v>
       </c>
       <c r="B20" s="4">
-        <v>24</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D20" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -1541,21 +1562,21 @@
         <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>25</v>
-      </c>
-      <c r="C21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -1564,28 +1585,28 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D22" s="4">
         <v>1</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1595,23 +1616,23 @@
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1619,25 +1640,25 @@
         <v>12</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D24" s="4">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1645,16 +1666,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>13</v>
@@ -1663,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1671,22 +1692,22 @@
         <v>12</v>
       </c>
       <c r="B26" s="4">
-        <v>8</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>14</v>
@@ -1697,22 +1718,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="4">
+        <v>23</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D27" s="4">
         <v>1</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>14</v>
@@ -1723,22 +1744,22 @@
         <v>12</v>
       </c>
       <c r="B28" s="4">
-        <v>21</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D28" s="4">
         <v>4</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>14</v>
@@ -1749,24 +1770,24 @@
         <v>12</v>
       </c>
       <c r="B29" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1775,22 +1796,22 @@
         <v>12</v>
       </c>
       <c r="B30" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D30" s="4">
         <v>4</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>14</v>
@@ -1801,24 +1822,24 @@
         <v>12</v>
       </c>
       <c r="B31" s="4">
-        <v>27</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1827,22 +1848,22 @@
         <v>12</v>
       </c>
       <c r="B32" s="4">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="D32" s="4">
         <v>4</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>14</v>
@@ -1850,22 +1871,22 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B33" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D33" s="4">
         <v>4</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>13</v>
@@ -1876,24 +1897,24 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B34" s="4">
-        <v>31</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="D34" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -1905,21 +1926,21 @@
         <v>1</v>
       </c>
       <c r="B35" s="4">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="D35" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -1931,488 +1952,480 @@
         <v>1</v>
       </c>
       <c r="B36" s="4">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>1</v>
+      </c>
+      <c r="B37" s="6">
+        <v>27</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>1</v>
+      </c>
+      <c r="B38" s="6">
+        <v>28</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4">
-        <v>1</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D38" s="6">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>1</v>
+      </c>
+      <c r="B39" s="6">
+        <v>29</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6">
+        <v>4</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="4">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>1</v>
-      </c>
-      <c r="B37" s="4">
-        <v>7</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="4">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4">
-        <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
+      <c r="F40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
+      <c r="A46" s="15"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="A47" s="15"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="A50" s="15"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="15"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="A56" s="15"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="A57" s="15"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="A58" s="15"/>
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="A59" s="15"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="A60" s="15"/>
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
+      <c r="A63" s="15"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="A67" s="15"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="A69" s="15"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
+      <c r="A71" s="15"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
+      <c r="A73" s="15"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
+      <c r="A74" s="15"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="A77" s="15"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="A78" s="15"/>
+      <c r="B78" s="15"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="A79" s="15"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
